--- a/data/trans_camb/P10_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P10_2-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 8,53</t>
+          <t>-13,76; 9,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 7,75</t>
+          <t>-8,8; 9,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 5,19</t>
+          <t>-8,29; 6,74</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>-0,25%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 9,54</t>
+          <t>-14,3; 11,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 8,48</t>
+          <t>-8,9; 10,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 5,63</t>
+          <t>-8,51; 7,52</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-0,21</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,75; 23,92</t>
+          <t>-39,05; 24,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 9,02</t>
+          <t>-13,08; 13,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 14,06</t>
+          <t>-18,58; 17,64</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>-0,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>-0,24%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 32,81</t>
+          <t>-41,05; 32,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 10,54</t>
+          <t>-13,86; 17,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 17,12</t>
+          <t>-20,66; 22,51</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,64</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 13,05</t>
+          <t>-10,18; 10,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 4,38</t>
+          <t>-2,11; 5,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 6,6</t>
+          <t>-3,3; 4,71</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-0,13%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>1,02%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,66%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 15,61</t>
+          <t>-10,44; 11,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 4,61</t>
+          <t>-2,12; 5,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 7,4</t>
+          <t>-3,37; 5,12</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,54</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 6,8</t>
+          <t>-7,17; 9,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 4,74</t>
+          <t>-6,04; 6,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 4,41</t>
+          <t>-4,47; 5,51</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,97%</t>
+          <t>-0,12%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,15%</t>
+          <t>0,58%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 7,73</t>
+          <t>-7,57; 11,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 5,31</t>
+          <t>-6,16; 6,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 4,93</t>
+          <t>-4,66; 6,16</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,14</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 12,23</t>
+          <t>-22,83; 15,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 9,39</t>
+          <t>-13,85; 12,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 6,92</t>
+          <t>-13,89; 11,42</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,98%</t>
+          <t>-2,22%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>-1,39%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 16,09</t>
+          <t>-26,97; 23,06</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 12,12</t>
+          <t>-14,75; 14,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 8,83</t>
+          <t>-16,44; 14,95</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,27</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 14,81</t>
+          <t>-20,14; 16,34</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 14,96</t>
+          <t>-20,01; 18,96</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 11,39</t>
+          <t>-15,8; 13,54</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>-0,49%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>-0,39%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 23,05</t>
+          <t>-23,76; 23,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 31,0</t>
+          <t>-30,37; 38,74</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 19,48</t>
+          <t>-21,42; 21,92</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-0,13</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 6,02</t>
+          <t>-8,63; 7,34</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 4,13</t>
+          <t>-4,86; 4,4</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,05</t>
+          <t>-4,67; 4,4</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>-0,15%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 7,2</t>
+          <t>-9,72; 8,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 4,86</t>
+          <t>-5,38; 5,03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 4,77</t>
+          <t>-5,23; 5,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P10_2-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.1115215282765036</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4802293649166733</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.321432345645134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,76; 9,73</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,8; 9,14</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,29; 6,74</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.08570530114342</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.406025822881999</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.951847062304291</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,4%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,05%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,25%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.81771070634046</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.21385525543985</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.947643857848863</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,3; 11,13</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,9; 10,44</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,51; 7,52</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.001190825162091642</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.005026704312342254</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.003392831553684738</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1234101529959562</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.06535327181917132</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.07118175855055278</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-39,05; 24,78</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,08; 13,68</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-18,58; 17,64</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.1472177516777644</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.128653526827789</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.08655541587476359</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,61%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,13%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,24%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.517375361918882</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1447053095273154</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.6779658532616306</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-41,05; 32,94</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-13,86; 17,11</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-20,66; 22,51</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-23.11873811242798</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.90640165704995</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-16.74721942595627</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>37.00596046571228</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.27012741388314</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>18.48163115979767</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,18; 10,03</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 5,56</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,3; 4,71</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.01762121613465994</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.001631943733931489</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.007759360927626324</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,13%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,02%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,66%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2421665487021105</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1391157757542896</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1808745541483376</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-10,44; 11,4</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 5,97</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,37; 5,12</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.5785163580647349</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1753234732869826</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2466562742802458</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.684566389289798</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.057030948616733</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.9351596861870703</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-7,17; 9,98</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-6,04; 6,2</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,47; 5,51</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.061591006833506</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-1.954775438099555</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-2.855815195167634</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>1,42%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,12%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,58%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>10.60600876346038</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>5.846716465292569</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>5.049910001684536</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-7,57; 11,63</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-6,16; 6,67</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-4,66; 6,16</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.007335405136117668</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.01079348698222971</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.009729188933701938</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-1,72</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.08533344203280514</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.01968447341788101</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.0289170334210345</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-22,83; 15,78</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-13,85; 12,13</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-13,89; 11,42</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.1232111152630586</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.06212163966925748</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.05417752006298803</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-2,22%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-0,33%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-1,39%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.378373485171402</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04357381811358474</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.6692764840754206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-26,97; 23,06</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-14,75; 14,73</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-16,44; 14,95</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-7.210108856439401</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-5.77007449062826</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.222629807739001</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>10.04462180911077</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.285951669952963</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.665059029174916</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-20,14; 16,34</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-20,01; 18,96</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-15,8; 13,54</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.01510660678688126</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.0004585411413616835</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.007174662106120814</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-0,49%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>0,46%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-0,39%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.07465948663010126</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.05859523787036329</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.04318695128959129</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-23,76; 23,47</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-30,37; 38,74</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-21,42; 21,92</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1167426882341498</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.06874553017889473</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.06280267210843236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-2.604459142335191</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-0.1471994889055694</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-1.593296598040772</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-8,63; 7,34</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-4,86; 4,4</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 4,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-24.7028435976248</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-13.54320671183543</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-14.7968093285753</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-0,26%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-0,07%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-0,15%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>14.97639669179999</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>12.21460252795748</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>11.14025766633151</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-9,72; 8,85</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-5,38; 5,03</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 5,05</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.03355204999890769</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.001672218620652174</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.01941491741407031</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.2911997081244367</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.1423218350874709</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.1703951872055122</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.2198050762347291</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.1474501481416297</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.1484012771555617</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>1.874876912904444</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>0.5784931057737808</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>1.361420478389452</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-16.90625700510188</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-19.98341615098648</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-14.35832346396071</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>18.32795397812796</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>19.5537772630777</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>14.96734981668178</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.02424622251403803</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.009634880039243975</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.02003601282686921</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.2012355451050025</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.3008256775211532</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.1891424550578607</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.2612863208429577</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.3939869087692263</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.2473818182301599</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0.6045780151806346</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>0.5581648205477574</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.5733764501667404</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-7.208060416282319</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-4.045466616038719</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-3.722360516841574</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>8.119924521142325</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>4.78559097386427</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>5.11474450241765</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.006964735893893637</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.006223072812207627</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.006489867332010834</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.0822874855218494</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.04382695491281195</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.0411779703116919</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.09830566636095368</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.05585841878984333</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.05896613300786212</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
